--- a/Computer/MemoryMap.xlsx
+++ b/Computer/MemoryMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D3F17B-9CF8-49AA-86E8-294F4113760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2814D996-237B-43CA-AABD-07E786E09B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18FFB5A3-0498-4994-9A35-5FD0803FA0A2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Memory Map</t>
     <phoneticPr fontId="1"/>
@@ -324,6 +324,14 @@
   </si>
   <si>
     <t>CMD registers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Printer related</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F0E0 - F0EF</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -482,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -554,6 +562,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -896,10 +907,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:H44"/>
+  <dimension ref="B3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -917,15 +928,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="25.5">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="2"/>
@@ -935,14 +946,14 @@
         <v>1</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="31" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="2:8" ht="19.5" customHeight="1">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -953,7 +964,7 @@
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="31"/>
+      <c r="B7" s="32"/>
       <c r="F7" s="1" t="s">
         <v>68</v>
       </c>
@@ -962,7 +973,7 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
@@ -971,7 +982,7 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
@@ -980,7 +991,7 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
@@ -992,10 +1003,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="31"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1007,7 +1018,7 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="31"/>
+      <c r="B13" s="32"/>
       <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
@@ -1019,7 +1030,7 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="31"/>
+      <c r="B14" s="32"/>
       <c r="F14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1031,7 +1042,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="31"/>
+      <c r="B15" s="32"/>
       <c r="F15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1043,11 +1054,11 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="31"/>
-      <c r="D17" s="26" t="s">
+      <c r="B17" s="32"/>
+      <c r="D17" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="6"/>
@@ -1060,8 +1071,8 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="31"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="32"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8" t="s">
         <v>47</v>
@@ -1072,8 +1083,8 @@
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="31"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="32"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8" t="s">
         <v>46</v>
@@ -1084,8 +1095,8 @@
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="31"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
         <v>45</v>
@@ -1096,8 +1107,8 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="31"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="32"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8" t="s">
         <v>44</v>
@@ -1108,8 +1119,8 @@
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="31"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="32"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
         <v>42</v>
@@ -1120,8 +1131,8 @@
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B23" s="31"/>
-      <c r="D23" s="28"/>
+      <c r="B23" s="32"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
         <v>41</v>
@@ -1132,253 +1143,273 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="32"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="32"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="15" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="16" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="24" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="H27" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="24"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B29" s="24"/>
       <c r="C29" s="8"/>
       <c r="D29" s="17"/>
       <c r="E29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="H29" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="24"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:8" ht="20.25" thickBot="1">
+      <c r="B31" s="25"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="25"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="24"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="24"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="24"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="24"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="27"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="24"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="27"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="2:8" ht="20.25" thickBot="1">
-      <c r="B36" s="24"/>
+    <row r="36" spans="2:8">
+      <c r="B36" s="25"/>
       <c r="C36" s="8"/>
       <c r="D36" s="28"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="25"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="2:8" ht="20.25" thickBot="1">
+      <c r="B38" s="25"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="12">
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="12">
         <v>100</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="4" t="s">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="15" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="16" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="24" t="s">
+    <row r="42" spans="2:8">
+      <c r="B42" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="25" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="H40" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="24"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="24"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="25"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
       <c r="H42" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="24"/>
+      <c r="B43" s="25"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="25"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="25"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="H44" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="25"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="H45" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="12">
+    <row r="46" spans="2:8">
+      <c r="B46" s="12">
         <v>0</v>
       </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="D32:D38"/>
     <mergeCell ref="D17:D23"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:B23"/>
-    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="B6:B25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
